--- a/Schema/WPG_Nakło/SLO_CelPracyArchiwalny.xlsx
+++ b/Schema/WPG_Nakło/SLO_CelPracyArchiwalny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\xsd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grzeg\source\repos\ReadOpXML\Schema\WPG_Nakło\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B16AB8CC-19AB-41E4-984B-45C7FF32DF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2421DA8-E37B-4E1B-8DDD-3427E84C0593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{3D7F09C2-7CB0-4E33-9225-A067B8867C45}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{EC2D186E-ED83-472C-97F5-598CE513BBFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{41889A65-72C7-4CC8-B16F-86918659C5C2}" name="SLO_CelPracyArchiwalny" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="R:\xsd\SLO_CelPracyArchiwalny.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" xr16:uid="{D0278EB2-4067-4A4D-8997-A46480BEF066}" name="SLO_CelPracyArchiwalny" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\grzeg\source\repos\ReadOpXML\Schema\WPG_Nakło\SLO_CelPracyArchiwalny.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Kolumna1</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>aktualizacja mapy</t>
+  </si>
+  <si>
+    <t>wznowienie granic</t>
+  </si>
+  <si>
+    <t>rozgraniczenie</t>
+  </si>
+  <si>
+    <t>aktualizacja EGiB</t>
+  </si>
+  <si>
+    <t>modernizacja EGiB</t>
   </si>
   <si>
     <t>podział</t>
@@ -170,6 +182,7 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,16 +256,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92E312D2-D4F1-4620-A2AD-BEBCC65E7CE7}" name="Tabela1" displayName="Tabela1" ref="A1:C41" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C41" xr:uid="{E16AB026-77A4-418D-9D28-7F5F9E742BD9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1CA5817-CD26-4707-9044-424822DD89AF}" name="Tabela1" displayName="Tabela1" ref="A1:C45" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C45" xr:uid="{B9D8EA76-AB5F-43B3-BC7B-B8975798EBDB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6C69D0B2-5D72-4ACF-97B4-69332C5201E5}" uniqueName="key" name="key">
+    <tableColumn id="1" xr3:uid="{90F45C69-E096-4F0E-ABE4-9D26510361BC}" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/SLO_CelPracyArchiwalny/entry/key" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CEF0F68D-5582-4CCF-A2C8-F413E5793F82}" uniqueName="value" name="value">
+    <tableColumn id="2" xr3:uid="{A06664D1-9CA3-4D16-8CE0-23BBA745764E}" uniqueName="value" name="value">
       <xmlColumnPr mapId="1" xpath="/SLO_CelPracyArchiwalny/entry/value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6A78EB5D-E957-4971-83F0-C3CC24C0BABD}" uniqueName="3" name="Kolumna1" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{739F7A09-8967-4362-BF82-AD85CC2B4F32}" uniqueName="3" name="Kolumna1" dataDxfId="0">
       <calculatedColumnFormula>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -557,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,432 +643,480 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>100003</v>
+        <v>100109</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="podział"/&gt;</v>
+        <v>&lt;enumeration value="wznowienie granic"/&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>100002</v>
+        <v>100108</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja sieci kanalizacyjnej"/&gt;</v>
+        <v>&lt;enumeration value="rozgraniczenie"/&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>100</v>
+        <v>100111</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG)"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja EGiB"/&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>100005</v>
+        <v>100110</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja sieci wodociągowej"/&gt;</v>
+        <v>&lt;enumeration value="modernizacja EGiB"/&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>101</v>
+        <v>100003</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG) Dziennik Ustaw – 35 – Poz. 1183"/&gt;</v>
+        <v>&lt;enumeration value="podział"/&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>100004</v>
+        <v>100002</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja sieci gazowej"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja sieci kanalizacyjnej"/&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG)"/&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>103</v>
+        <v>100005</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja sieci wodociągowej"/&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>100006</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="dokumenty przewłaszczeniowe"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG) Dziennik Ustaw – 35 – Poz. 1183"/&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>104</v>
+        <v>100004</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja sieci gazowej"/&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>100008</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja sieci energetycznej"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>106</v>
+        <v>100006</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
+        <v>&lt;enumeration value="dokumenty przewłaszczeniowe"/&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>109</v>
+        <v>100008</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja sieci energetycznej"/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>100012</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja budynku"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG) Dziennik Ustaw – 36 – Poz. 1183"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>100015</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="klasyfikacja użytkow"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG)"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>112</v>
+        <v>100012</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja budynku"/&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>100017</v>
+        <v>110</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="wymiana gruntów"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG) Dziennik Ustaw – 36 – Poz. 1183"/&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>113</v>
+        <v>100015</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
+        <v>&lt;enumeration value="klasyfikacja użytkow"/&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>100080</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="POMIAR SYT-WYS"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG)"/&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych ortofotomapy"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>100083</v>
+        <v>100017</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="WERYFIKACJA DANYCH EWIDENCYJNYCH (KONTROLA TERENOWA)"/&gt;</v>
+        <v>&lt;enumeration value="wymiana gruntów"/&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych numerycznego modelu terenu (NMT)"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>100018</v>
+        <v>100080</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="urządzenia lasu"/&gt;</v>
+        <v>&lt;enumeration value="POMIAR SYT-WYS"/&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>100082</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="INWENTARYZACJA POWYKONAWCZA"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych ortofotomapy"/&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>100021</v>
+        <v>100083</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja słupów"/&gt;</v>
+        <v>&lt;enumeration value="WERYFIKACJA DANYCH EWIDENCYJNYCH (KONTROLA TERENOWA)"/&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>100085</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="USTALENIE GRANIC"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych numerycznego modelu terenu (NMT)"/&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>100023</v>
+        <v>100018</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja sieci telekomunikacyjnej"/&gt;</v>
+        <v>&lt;enumeration value="urządzenia lasu"/&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>100025</v>
+        <v>100082</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="nowy pomiar"/&gt;</v>
+        <v>&lt;enumeration value="INWENTARYZACJA POWYKONAWCZA"/&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>100089</v>
+        <v>100021</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="SCALENIE I WYMIANA GRUNTÓW"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja słupów"/&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>100024</v>
+        <v>100085</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja sieci ciepłowniczej"/&gt;</v>
+        <v>&lt;enumeration value="USTALENIE GRANIC"/&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>100094</v>
+        <v>100023</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwentaryzacja sieci telekomunikacyjnej"/&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>100025</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="nowy pomiar"/&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>100089</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="SCALENIE I WYMIANA GRUNTÓW"/&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>100024</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwentaryzacja sieci ciepłowniczej"/&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>100094</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
         <v>&lt;enumeration value="OSNOWA"/&gt;</v>
       </c>
